--- a/2022-05-19.xlsx
+++ b/2022-05-19.xlsx
@@ -816,7 +816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44700.30491934009</v>
+        <v>44700.30491934028</v>
       </c>
       <c r="B16" t="n">
         <v>226.11</v>
@@ -1548,6 +1548,1722 @@
       </c>
       <c r="N16" t="n">
         <v>0.00549</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>44700.30637827546</v>
+      </c>
+      <c r="B17" t="n">
+        <v>227.24</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D17" t="n">
+        <v>108.51</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-26.39</v>
+      </c>
+      <c r="F17" t="n">
+        <v>111.68</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.57047</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.00047</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>44700.30654357639</v>
+      </c>
+      <c r="B18" t="n">
+        <v>227.44</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D18" t="n">
+        <v>124.26</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-33.85</v>
+      </c>
+      <c r="F18" t="n">
+        <v>128.79</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.57098</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.00098</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>44700.30670875</v>
+      </c>
+      <c r="B19" t="n">
+        <v>227.62</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D19" t="n">
+        <v>97.48999999999999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-29.15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>101.76</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.57139</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.00139</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>44700.30687391204</v>
+      </c>
+      <c r="B20" t="n">
+        <v>225.85</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D20" t="n">
+        <v>97.91</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100.92</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.57179</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.00179</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>44700.30703916667</v>
+      </c>
+      <c r="B21" t="n">
+        <v>226.36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D21" t="n">
+        <v>101.62</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-25.44</v>
+      </c>
+      <c r="F21" t="n">
+        <v>104.75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.57221</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.00221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>44700.30720431713</v>
+      </c>
+      <c r="B22" t="n">
+        <v>226.07</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D22" t="n">
+        <v>101.49</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-26.82</v>
+      </c>
+      <c r="F22" t="n">
+        <v>104.97</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.57263</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.00263</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>44700.30736951389</v>
+      </c>
+      <c r="B23" t="n">
+        <v>226.61</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D23" t="n">
+        <v>102.74</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-26.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>106.03</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.57306</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.00306</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>44700.30753471065</v>
+      </c>
+      <c r="B24" t="n">
+        <v>226.29</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D24" t="n">
+        <v>103.31</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-22.27</v>
+      </c>
+      <c r="F24" t="n">
+        <v>105.68</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5734900000000001</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.00349</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>44700.30769991898</v>
+      </c>
+      <c r="B25" t="n">
+        <v>226.95</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D25" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-25.37</v>
+      </c>
+      <c r="F25" t="n">
+        <v>101.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.57389</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.00389</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>44700.30786513889</v>
+      </c>
+      <c r="B26" t="n">
+        <v>226.59</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D26" t="n">
+        <v>104.44</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-25.86</v>
+      </c>
+      <c r="F26" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5743200000000001</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.00432</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>44700.30805789352</v>
+      </c>
+      <c r="B27" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D27" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-25.86</v>
+      </c>
+      <c r="F27" t="n">
+        <v>104.74</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.57481</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00481</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>44700.30822298611</v>
+      </c>
+      <c r="B28" t="n">
+        <v>226.58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D28" t="n">
+        <v>100.96</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-24.95</v>
+      </c>
+      <c r="F28" t="n">
+        <v>104</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.57523</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00523</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44700.30838815972</v>
+      </c>
+      <c r="B29" t="n">
+        <v>226.6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D29" t="n">
+        <v>101.49</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-27.11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>105.05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.57565</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.00565</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44700.3085533449</v>
+      </c>
+      <c r="B30" t="n">
+        <v>225.96</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D30" t="n">
+        <v>131.31</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-23.63</v>
+      </c>
+      <c r="F30" t="n">
+        <v>133.42</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.5762</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0062</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44700.30871853009</v>
+      </c>
+      <c r="B31" t="n">
+        <v>226.22</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D31" t="n">
+        <v>99.94</v>
+      </c>
+      <c r="E31" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="F31" t="n">
+        <v>103.73</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.57661</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.00661</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44700.30888377315</v>
+      </c>
+      <c r="B32" t="n">
+        <v>226.17</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D32" t="n">
+        <v>101.34</v>
+      </c>
+      <c r="E32" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="F32" t="n">
+        <v>104.23</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.57703</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.00703</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>44700.30904895833</v>
+      </c>
+      <c r="B33" t="n">
+        <v>226.19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D33" t="n">
+        <v>102.18</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-24.39</v>
+      </c>
+      <c r="F33" t="n">
+        <v>105.05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.57745</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.00745</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>44700.30921409722</v>
+      </c>
+      <c r="B34" t="n">
+        <v>226.6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D34" t="n">
+        <v>101.53</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-24.31</v>
+      </c>
+      <c r="F34" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.57787</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.00787</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>44700.30937924769</v>
+      </c>
+      <c r="B35" t="n">
+        <v>227.09</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D35" t="n">
+        <v>100.71</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-26.51</v>
+      </c>
+      <c r="F35" t="n">
+        <v>104.14</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.57829</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.00829</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>44700.30954443287</v>
+      </c>
+      <c r="B36" t="n">
+        <v>226.31</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D36" t="n">
+        <v>99.25</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-25.37</v>
+      </c>
+      <c r="F36" t="n">
+        <v>102.44</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.5787</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>44700.3097096412</v>
+      </c>
+      <c r="B37" t="n">
+        <v>225.13</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D37" t="n">
+        <v>98.81</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-23.83</v>
+      </c>
+      <c r="F37" t="n">
+        <v>101.64</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.57911</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.00911</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>44700.30987475695</v>
+      </c>
+      <c r="B38" t="n">
+        <v>226.44</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D38" t="n">
+        <v>105.07</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-22.29</v>
+      </c>
+      <c r="F38" t="n">
+        <v>107.41</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.5795400000000001</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.00954</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>44700.31004006945</v>
+      </c>
+      <c r="B39" t="n">
+        <v>226.93</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D39" t="n">
+        <v>106.28</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-27.03</v>
+      </c>
+      <c r="F39" t="n">
+        <v>109.66</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5799800000000001</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.009979999999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>44700.31023273148</v>
+      </c>
+      <c r="B40" t="n">
+        <v>226.31</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D40" t="n">
+        <v>112.98</v>
+      </c>
+      <c r="E40" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="F40" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.58053</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.01053</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>44700.31039782408</v>
+      </c>
+      <c r="B41" t="n">
+        <v>226.75</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D41" t="n">
+        <v>112.74</v>
+      </c>
+      <c r="E41" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="F41" t="n">
+        <v>116.55</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>44700.31056296296</v>
+      </c>
+      <c r="B42" t="n">
+        <v>226.79</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D42" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="F42" t="n">
+        <v>108.43</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.58143</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.01143</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>44700.31072819445</v>
+      </c>
+      <c r="B43" t="n">
+        <v>227.36</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D43" t="n">
+        <v>100.42</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-25.05</v>
+      </c>
+      <c r="F43" t="n">
+        <v>103.49</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.58185</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.01185</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>44700.31089331018</v>
+      </c>
+      <c r="B44" t="n">
+        <v>226.03</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>110.11</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-25.74</v>
+      </c>
+      <c r="F44" t="n">
+        <v>113.07</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.5823</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0123</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44700.31105856482</v>
+      </c>
+      <c r="B45" t="n">
+        <v>226.69</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D45" t="n">
+        <v>100.39</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-25.32</v>
+      </c>
+      <c r="F45" t="n">
+        <v>103.53</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.58272</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.01272</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44700.31122369213</v>
+      </c>
+      <c r="B46" t="n">
+        <v>226.38</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D46" t="n">
+        <v>111.33</v>
+      </c>
+      <c r="E46" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="F46" t="n">
+        <v>114.81</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.58318</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.01318</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>44700.31138887732</v>
+      </c>
+      <c r="B47" t="n">
+        <v>227.15</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D47" t="n">
+        <v>103.24</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-19.54</v>
+      </c>
+      <c r="F47" t="n">
+        <v>105.07</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.58361</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.01361</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>44700.31155400463</v>
+      </c>
+      <c r="B48" t="n">
+        <v>225.84</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D48" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-25.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>108.38</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.58404</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.01404</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>44700.31171935185</v>
+      </c>
+      <c r="B49" t="n">
+        <v>225.36</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D49" t="n">
+        <v>127.33</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-27.36</v>
+      </c>
+      <c r="F49" t="n">
+        <v>130.24</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.58457</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01457</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>44700.31188429398</v>
+      </c>
+      <c r="B50" t="n">
+        <v>225.12</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D50" t="n">
+        <v>116.65</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-25.83</v>
+      </c>
+      <c r="F50" t="n">
+        <v>119.47</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.58505</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.01505</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>44700.3120494213</v>
+      </c>
+      <c r="B51" t="n">
+        <v>226.01</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D51" t="n">
+        <v>106.13</v>
+      </c>
+      <c r="E51" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="F51" t="n">
+        <v>109.68</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.58549</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.01549</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>44700.3122421875</v>
+      </c>
+      <c r="B52" t="n">
+        <v>224.59</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D52" t="n">
+        <v>124.98</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-30.08</v>
+      </c>
+      <c r="F52" t="n">
+        <v>128.55</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.5861</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0161</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>44700.31240738426</v>
+      </c>
+      <c r="B53" t="n">
+        <v>224.51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>110.93</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-21.54</v>
+      </c>
+      <c r="F53" t="n">
+        <v>113</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.58656</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.01656</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>44700.31257259259</v>
+      </c>
+      <c r="B54" t="n">
+        <v>224.29</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D54" t="n">
+        <v>111.62</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-27.68</v>
+      </c>
+      <c r="F54" t="n">
+        <v>115.01</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.58702</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.01702</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>44700.31273771733</v>
+      </c>
+      <c r="B55" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D55" t="n">
+        <v>113.15</v>
+      </c>
+      <c r="E55" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="F55" t="n">
+        <v>116.33</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.58749</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.01749</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +4361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2866,6 +4582,113 @@
       </c>
       <c r="L2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44700.31257643519</v>
+      </c>
+      <c r="B3" t="n">
+        <v>227.6158992719025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>227.5284894562978</v>
+      </c>
+      <c r="D3" t="n">
+        <v>227.4410796406932</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5904534142561803</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5841754039859389</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5778973937156976</v>
+      </c>
+      <c r="H3" t="n">
+        <v>131.3101358088635</v>
+      </c>
+      <c r="I3" t="n">
+        <v>129.3196360176687</v>
+      </c>
+      <c r="J3" t="n">
+        <v>127.3291362264738</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29.53968435328536</v>
+      </c>
+      <c r="L3" t="n">
+        <v>28.79505069289269</v>
+      </c>
+      <c r="M3" t="n">
+        <v>28.05041703250002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>133.4198612988196</v>
+      </c>
+      <c r="O3" t="n">
+        <v>131.8274724297779</v>
+      </c>
+      <c r="P3" t="n">
+        <v>130.2350835607362</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.2201436686945572</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.2201436686945572</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.2201436686945572</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2082402607136679</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2082402607136679</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2082402607136679</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.8691324451675959</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.8688431301437544</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.8685538151199128</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2655028158476733</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2640927537895175</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2626826917313618</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.6592954329270104</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.6553333818719891</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.6513713308169676</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5.443963293349387</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5.437387412164124</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>5.430811530978861</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.5870174546392851</v>
       </c>
     </row>
   </sheetData>
